--- a/data/trans_orig/P62A$invalidez-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62A$invalidez-Edad-trans_orig.xlsx
@@ -936,7 +936,7 @@
         <v>3315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>883</v>
+        <v>916</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>5226</v>
@@ -945,7 +945,7 @@
         <v>0.6343583936464837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1690194084602556</v>
+        <v>0.1752251317520345</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -957,19 +957,19 @@
         <v>2831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7262</v>
+        <v>6407</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2626227980035078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07377377834610382</v>
+        <v>0.07300084185616498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.673669763878614</v>
+        <v>0.5943272931374989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -978,19 +978,19 @@
         <v>6146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2559</v>
+        <v>2460</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10027</v>
+        <v>10519</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3840041905562169</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1598946716434023</v>
+        <v>0.1537039145599246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6264721949732242</v>
+        <v>0.6572030983650857</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3438</v>
+        <v>4046</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.199097865208939</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6577986619759103</v>
+        <v>0.7741981635794186</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4831</v>
+        <v>5257</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06501065923356704</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3018364265211006</v>
+        <v>0.3284266618879686</v>
       </c>
     </row>
     <row r="10">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3708</v>
+        <v>4084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1665437411445773</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7094545513518921</v>
+        <v>0.7814393032293024</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1091,19 +1091,19 @@
         <v>5883</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2310</v>
+        <v>2297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9053</v>
+        <v>8964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5457227806557386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2142738072335459</v>
+        <v>0.2130518148984037</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8397576669520905</v>
+        <v>0.8315616778798162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1112,19 +1112,19 @@
         <v>6753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3149</v>
+        <v>2974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11217</v>
+        <v>10836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4219109090402282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1967272823812616</v>
+        <v>0.185804592569096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7007952733256331</v>
+        <v>0.6769797883424161</v>
       </c>
     </row>
     <row r="11">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5595</v>
+        <v>5773</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1916544213407535</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.518982338918214</v>
+        <v>0.5355622084512781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1290742411699879</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3657305430280508</v>
+        <v>0.3658624181100917</v>
       </c>
     </row>
     <row r="12">
@@ -1208,19 +1208,19 @@
         <v>15156</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9796</v>
+        <v>9451</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20624</v>
+        <v>19708</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.604569541305053</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.390763161782729</v>
+        <v>0.3769806853614739</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8226920274222285</v>
+        <v>0.7861387358831774</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1229,19 +1229,19 @@
         <v>10259</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5999</v>
+        <v>5819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14419</v>
+        <v>14228</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.53189500899064</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3110306888404727</v>
+        <v>0.3017240147608262</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7475766954437765</v>
+        <v>0.7377206258539087</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1250,19 +1250,19 @@
         <v>25415</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18071</v>
+        <v>18101</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31762</v>
+        <v>31895</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5729696270026159</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.407400380968745</v>
+        <v>0.4080786175766073</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7160647997704628</v>
+        <v>0.71905861666919</v>
       </c>
     </row>
     <row r="13">
@@ -1279,19 +1279,19 @@
         <v>8060</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3069</v>
+        <v>3773</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13928</v>
+        <v>14220</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3215096934691948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1224073527400518</v>
+        <v>0.1505031589993331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5555853139091915</v>
+        <v>0.5672231856850801</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1300,19 +1300,19 @@
         <v>2972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7040</v>
+        <v>6918</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1540720183375157</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04863778420102992</v>
+        <v>0.04802731986076302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3650279566053957</v>
+        <v>0.3587051997290069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1321,19 +1321,19 @@
         <v>11032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5576</v>
+        <v>5886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17601</v>
+        <v>18812</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2487054246743195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1257207491766901</v>
+        <v>0.1327088158514684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3968171224335127</v>
+        <v>0.424112781605423</v>
       </c>
     </row>
     <row r="14">
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5695</v>
+        <v>5954</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07392076522575224</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2271894244902206</v>
+        <v>0.2375230754204825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1371,19 +1371,19 @@
         <v>3140</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7370</v>
+        <v>7009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1628254221620982</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04811055730535064</v>
+        <v>0.04802583982240853</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3821304844041185</v>
+        <v>0.3633969304635425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1392,19 +1392,19 @@
         <v>4993</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2006</v>
+        <v>1858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10800</v>
+        <v>10222</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1125777672154155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04522699240584802</v>
+        <v>0.041884967685049</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2434834554936432</v>
+        <v>0.2304569220657236</v>
       </c>
     </row>
     <row r="15">
@@ -1434,19 +1434,19 @@
         <v>2916</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>919</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7098</v>
+        <v>6177</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.151207550509746</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04762286136898424</v>
+        <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3680060208275354</v>
+        <v>0.3202795195836027</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1455,19 +1455,19 @@
         <v>2916</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8132</v>
+        <v>7884</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06574718110764917</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02008193720186166</v>
+        <v>0.02079911614121449</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1833373958258218</v>
+        <v>0.177753208524767</v>
       </c>
     </row>
     <row r="16">
@@ -1488,19 +1488,19 @@
         <v>25310</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18727</v>
+        <v>18051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32100</v>
+        <v>31729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5526820519959686</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4089495672914374</v>
+        <v>0.3941675464741763</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7009737487137504</v>
+        <v>0.6928717076431827</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1509,19 +1509,19 @@
         <v>12285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7353</v>
+        <v>7204</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19504</v>
+        <v>18638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2991924938079348</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1790847097134284</v>
+        <v>0.1754410685177766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4749959420312326</v>
+        <v>0.4539067399439758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -1530,19 +1530,19 @@
         <v>37595</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28478</v>
+        <v>28451</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46386</v>
+        <v>47076</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4328444189293602</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3278802554976228</v>
+        <v>0.3275717483722828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5340677239912774</v>
+        <v>0.5420055810972789</v>
       </c>
     </row>
     <row r="17">
@@ -1559,19 +1559,19 @@
         <v>18359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11767</v>
+        <v>12267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24914</v>
+        <v>25344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4009134406935508</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2569613520018675</v>
+        <v>0.2678647775882917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5440352611287069</v>
+        <v>0.5534305031146826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1580,19 +1580,19 @@
         <v>11686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6636</v>
+        <v>6758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17706</v>
+        <v>18452</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2846103770549549</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.161621351413405</v>
+        <v>0.164578772164307</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.431203401164615</v>
+        <v>0.4493704280842525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1601,19 +1601,19 @@
         <v>30046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21996</v>
+        <v>22115</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38859</v>
+        <v>39466</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3459309634488436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2532537491917256</v>
+        <v>0.2546150357053287</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4474039749721521</v>
+        <v>0.4543860209001906</v>
       </c>
     </row>
     <row r="18">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4617</v>
+        <v>4368</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02324265128666063</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1008215517144575</v>
+        <v>0.09539226690258226</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1651,19 +1651,19 @@
         <v>5893</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1975</v>
+        <v>1998</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11010</v>
+        <v>10992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1435210929152239</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04808742333787286</v>
+        <v>0.04867026380383389</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2681395763965616</v>
+        <v>0.2676969167408568</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1672,19 +1672,19 @@
         <v>6957</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2944</v>
+        <v>2957</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12958</v>
+        <v>12985</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08010449544599793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03389713259793802</v>
+        <v>0.03404735501826111</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1491949711973953</v>
+        <v>0.1494969751696189</v>
       </c>
     </row>
     <row r="19">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5404</v>
+        <v>5381</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02316185602381991</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1180090101906285</v>
+        <v>0.1175124588673079</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1722,19 +1722,19 @@
         <v>11196</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6267</v>
+        <v>6001</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17481</v>
+        <v>17228</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2726760362218864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1526350757707403</v>
+        <v>0.1461567186082863</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4257378144493072</v>
+        <v>0.4195648992455295</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1743,19 +1743,19 @@
         <v>12257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7060</v>
+        <v>6866</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20136</v>
+        <v>19718</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1411201221757983</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08128836082931593</v>
+        <v>0.0790513732492889</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2318391676928977</v>
+        <v>0.2270272854616715</v>
       </c>
     </row>
     <row r="20">
@@ -1776,19 +1776,19 @@
         <v>27377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19139</v>
+        <v>18798</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37361</v>
+        <v>37257</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1621813362295573</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1133771599369714</v>
+        <v>0.1113593669068067</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2213255049825178</v>
+        <v>0.2207063796292309</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1797,19 +1797,19 @@
         <v>13778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7818</v>
+        <v>7500</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21778</v>
+        <v>21765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1723855489077063</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09781766955618809</v>
+        <v>0.09383385511435463</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2724716467914513</v>
+        <v>0.2723110344402415</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -1818,19 +1818,19 @@
         <v>41155</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31430</v>
+        <v>30879</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55182</v>
+        <v>52577</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1654603366336174</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1263591116586162</v>
+        <v>0.1241462108035753</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2218538491685944</v>
+        <v>0.2113796205938228</v>
       </c>
     </row>
     <row r="21">
@@ -1847,19 +1847,19 @@
         <v>140572</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>130037</v>
+        <v>131142</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>148830</v>
+        <v>149204</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.83274337699041</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7703354951826747</v>
+        <v>0.7768774437165054</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8816651320096979</v>
+        <v>0.8838810997573693</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1868,19 +1868,19 @@
         <v>26939</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19366</v>
+        <v>19548</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36327</v>
+        <v>35250</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3370511813091263</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2422937504147114</v>
+        <v>0.2445670809168281</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4545078907366171</v>
+        <v>0.4410231762443598</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>170</v>
@@ -1889,19 +1889,19 @@
         <v>167511</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>150773</v>
+        <v>153438</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>180751</v>
+        <v>181573</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6734586814245386</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6061626331791985</v>
+        <v>0.6168765168366555</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7266872350630814</v>
+        <v>0.7299925829038356</v>
       </c>
     </row>
     <row r="22">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5106</v>
+        <v>3979</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005075286780032672</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03024951294161875</v>
+        <v>0.02356865265697055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1939,19 +1939,19 @@
         <v>3197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9734</v>
+        <v>8420</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03999433411972796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01227281011404609</v>
+        <v>0.01224050216020021</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1217809343741408</v>
+        <v>0.1053500698222705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1960,19 +1960,19 @@
         <v>4053</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>996</v>
+        <v>1206</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10330</v>
+        <v>9784</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01629610057014906</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004003880171056589</v>
+        <v>0.00484791220549513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04153194342733356</v>
+        <v>0.03933342263456317</v>
       </c>
     </row>
     <row r="23">
@@ -2002,19 +2002,19 @@
         <v>36013</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26634</v>
+        <v>27697</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>44824</v>
+        <v>45212</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4505689356634394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3332307020876586</v>
+        <v>0.3465332701529505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5608112920383956</v>
+        <v>0.5656645133955412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>36</v>
@@ -2023,19 +2023,19 @@
         <v>36013</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26674</v>
+        <v>25902</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>49172</v>
+        <v>46576</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.144784881371695</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1072397068496236</v>
+        <v>0.1041342647681185</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1976894936681113</v>
+        <v>0.1872517880869988</v>
       </c>
     </row>
     <row r="24">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5151</v>
+        <v>4700</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003269630274737787</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01803005502062882</v>
+        <v>0.01645273551839433</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2077,19 +2077,19 @@
         <v>4929</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1811</v>
+        <v>1844</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10361</v>
+        <v>11892</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02788633467255452</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01024472173268971</v>
+        <v>0.01043349233144046</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05862557547665478</v>
+        <v>0.06728333331825305</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2098,19 +2098,19 @@
         <v>5863</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2599</v>
+        <v>2198</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12744</v>
+        <v>12275</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01267837599577208</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005620092392888642</v>
+        <v>0.004754305196591185</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02755934444520629</v>
+        <v>0.0265459313093498</v>
       </c>
     </row>
     <row r="25">
@@ -2127,19 +2127,19 @@
         <v>282889</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>278239</v>
+        <v>278067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>284782</v>
+        <v>285674</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9902516710281912</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9739750153282518</v>
+        <v>0.9733724484013573</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9968775652091131</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -2148,19 +2148,19 @@
         <v>86622</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74098</v>
+        <v>73601</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100807</v>
+        <v>98966</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4901129428769197</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4192533610594668</v>
+        <v>0.4164405918043899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5703721050844474</v>
+        <v>0.5599559596483965</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>388</v>
@@ -2169,19 +2169,19 @@
         <v>369511</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>352104</v>
+        <v>352256</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>385165</v>
+        <v>387105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7990937466216179</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7614499477068228</v>
+        <v>0.7617774614892826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8329453063134384</v>
+        <v>0.8371418070412986</v>
       </c>
     </row>
     <row r="26">
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4018</v>
+        <v>5045</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003101579194372713</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01406504597544008</v>
+        <v>0.01766138744485243</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2219,19 +2219,19 @@
         <v>3428</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7872</v>
+        <v>7814</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01939387485536499</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004788599722045476</v>
+        <v>0.004991337016278284</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04453792830812259</v>
+        <v>0.04420968176251321</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2240,19 +2240,19 @@
         <v>4314</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10104</v>
+        <v>9590</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00932865429788584</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003612611285307861</v>
+        <v>0.003638986302386456</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02185067284994852</v>
+        <v>0.02073810302482065</v>
       </c>
     </row>
     <row r="27">
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5432</v>
+        <v>5834</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.003377119502698276</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01901477843314037</v>
+        <v>0.0204218754756773</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>89</v>
@@ -2290,19 +2290,19 @@
         <v>83386</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>70434</v>
+        <v>70744</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>96573</v>
+        <v>96474</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4718021629466843</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3985217641054175</v>
+        <v>0.4002745020612935</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5464158098385502</v>
+        <v>0.5458583873472251</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>90</v>
@@ -2311,19 +2311,19 @@
         <v>84350</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>69389</v>
+        <v>67624</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>102556</v>
+        <v>102405</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1824137627472665</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1500574465154875</v>
+        <v>0.1462425713225607</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2217849531630087</v>
+        <v>0.2214579785615209</v>
       </c>
     </row>
     <row r="28">
@@ -2357,19 +2357,19 @@
         <v>3329</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9733</v>
+        <v>8877</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01346170737388626</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004270602544097769</v>
+        <v>0.0042570780019393</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03935486707903402</v>
+        <v>0.0358958048948722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2378,19 +2378,19 @@
         <v>3329</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8880</v>
+        <v>8859</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007338040209467101</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002304640829919013</v>
+        <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01957358506101434</v>
+        <v>0.01952617172390843</v>
       </c>
     </row>
     <row r="29">
@@ -2420,19 +2420,19 @@
         <v>96913</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>81304</v>
+        <v>81160</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>113627</v>
+        <v>112294</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.391876346401739</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3287601417416194</v>
+        <v>0.3281792352925955</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4594641448785026</v>
+        <v>0.4540744361245236</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>300</v>
@@ -2441,19 +2441,19 @@
         <v>303290</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>282622</v>
+        <v>282199</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>323379</v>
+        <v>324901</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6685089269516765</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6229514645428127</v>
+        <v>0.6220201793142144</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7127884048740093</v>
+        <v>0.7161426236461316</v>
       </c>
     </row>
     <row r="30">
@@ -2483,19 +2483,19 @@
         <v>4674</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1134</v>
+        <v>1318</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11117</v>
+        <v>11407</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01889788012501036</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004584509764548876</v>
+        <v>0.005329886830251967</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04495274902934926</v>
+        <v>0.04612479606665509</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2507,16 +2507,16 @@
         <v>1126</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11496</v>
+        <v>12642</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01030132362704759</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002481972878620839</v>
+        <v>0.002481503505414951</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02533990470413639</v>
+        <v>0.02786612570752416</v>
       </c>
     </row>
     <row r="31">
@@ -2546,19 +2546,19 @@
         <v>147929</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>130644</v>
+        <v>132281</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>163088</v>
+        <v>162840</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5981652454102201</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5282733638787709</v>
+        <v>0.5348922246966338</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6594641177851577</v>
+        <v>0.6584620643776287</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>129</v>
@@ -2567,19 +2567,19 @@
         <v>147929</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>127609</v>
+        <v>128128</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>168208</v>
+        <v>169366</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3260626977556108</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2812749657368072</v>
+        <v>0.2824169979057206</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3707613475218846</v>
+        <v>0.3733141896596091</v>
       </c>
     </row>
     <row r="32">
@@ -2600,19 +2600,19 @@
         <v>72092</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09770280915819703</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -2621,19 +2621,19 @@
         <v>47411</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08229793987075504</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>116</v>
@@ -2642,19 +2642,19 @@
         <v>119503</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0909487838000031</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
     </row>
     <row r="33">
@@ -2671,19 +2671,19 @@
         <v>657299</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8907998537697298</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>221</v>
@@ -2692,19 +2692,19 @@
         <v>225132</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.390796189483865</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>899</v>
@@ -2713,19 +2713,19 @@
         <v>882431</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6715810233620241</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
     </row>
     <row r="34">
@@ -2742,19 +2742,19 @@
         <v>6458</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008752382786893224</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>26</v>
@@ -2763,19 +2763,19 @@
         <v>27202</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04721893638108128</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -2784,19 +2784,19 @@
         <v>33660</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02561744496754178</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
     </row>
     <row r="35">
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.002744954285179886</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>270</v>
@@ -2834,19 +2834,19 @@
         <v>283506</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4921244463497008</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>272</v>
@@ -2855,19 +2855,19 @@
         <v>285531</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2173057816125692</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
     </row>
     <row r="36">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4851</v>
+        <v>4325</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07054721494814187</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3565126671406708</v>
+        <v>0.3178496967901242</v>
       </c>
     </row>
     <row r="5">
@@ -3275,7 +3275,7 @@
         <v>12648</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8757</v>
+        <v>9283</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>13608</v>
@@ -3284,7 +3284,7 @@
         <v>0.9294527850518581</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6434873328593291</v>
+        <v>0.6821503032098788</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -3355,19 +3355,19 @@
         <v>9878</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5312</v>
+        <v>5716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13644</v>
+        <v>13714</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5897496051536759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3171463050162748</v>
+        <v>0.3412644534533474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8145592839660056</v>
+        <v>0.8187183618920043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3376,19 +3376,19 @@
         <v>4799</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1746</v>
+        <v>1088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10319</v>
+        <v>10607</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1972083944804508</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07173042178947704</v>
+        <v>0.04472305434622628</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4240308390220418</v>
+        <v>0.4358939903860742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -3397,19 +3397,19 @@
         <v>14677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8987</v>
+        <v>9062</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21845</v>
+        <v>20917</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.357243585813983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2187538700425667</v>
+        <v>0.220565152477751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5317259281787329</v>
+        <v>0.5091370109639738</v>
       </c>
     </row>
     <row r="9">
@@ -3473,19 +3473,19 @@
         <v>5908</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2088</v>
+        <v>2117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11083</v>
+        <v>10377</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3527264032681138</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1246855811616576</v>
+        <v>0.1263692299841373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6617004698010163</v>
+        <v>0.6195132664421654</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -3494,19 +3494,19 @@
         <v>19536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14016</v>
+        <v>13728</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22589</v>
+        <v>23247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8027916055195492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5759691609779574</v>
+        <v>0.5641060096139253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9282695782105229</v>
+        <v>0.9552769456537737</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3515,19 +3515,19 @@
         <v>25444</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18317</v>
+        <v>19067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31526</v>
+        <v>31227</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6193044485116387</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4458481346928461</v>
+        <v>0.464096487751661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.76734927572705</v>
+        <v>0.7600837631113437</v>
       </c>
     </row>
     <row r="11">
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4167</v>
+        <v>4229</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05752399157821024</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2487842402464431</v>
+        <v>0.2524695689659731</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4923</v>
+        <v>4864</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02345196567437828</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1198393181951264</v>
+        <v>0.1183929781411955</v>
       </c>
     </row>
     <row r="12">
@@ -3611,19 +3611,19 @@
         <v>25596</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18554</v>
+        <v>18624</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32855</v>
+        <v>32926</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5478276661804841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3971137521089507</v>
+        <v>0.3986139822652202</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7031875328581809</v>
+        <v>0.7047167257453141</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -3632,19 +3632,19 @@
         <v>18952</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11989</v>
+        <v>12323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25572</v>
+        <v>25665</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.47777693996915</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3022443764976138</v>
+        <v>0.3106529450512816</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6446583346574812</v>
+        <v>0.6470098743023954</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>39</v>
@@ -3653,19 +3653,19 @@
         <v>44548</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33609</v>
+        <v>33779</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54459</v>
+        <v>54044</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5156627902727929</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3890418729465009</v>
+        <v>0.3910038657025184</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6303804436556983</v>
+        <v>0.6255819066435921</v>
       </c>
     </row>
     <row r="13">
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4152</v>
+        <v>3958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02001480271877196</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08886146634122029</v>
+        <v>0.08471560041187676</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5592</v>
+        <v>5250</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01082469605486617</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06473184911727116</v>
+        <v>0.06077394944189984</v>
       </c>
     </row>
     <row r="14">
@@ -3745,19 +3745,19 @@
         <v>20192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12916</v>
+        <v>13130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27273</v>
+        <v>27736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.432157531100744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2764396882381853</v>
+        <v>0.2810262586578764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5837207387432185</v>
+        <v>0.5936212213587418</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -3766,19 +3766,19 @@
         <v>17794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10759</v>
+        <v>11309</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24297</v>
+        <v>24503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4485785461090671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2712438439399562</v>
+        <v>0.2850932532261563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6125173634253273</v>
+        <v>0.6177258274279158</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -3787,19 +3787,19 @@
         <v>37985</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28505</v>
+        <v>28360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49534</v>
+        <v>48610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4396974944756788</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3299569319626479</v>
+        <v>0.3282776673231972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5733774778330691</v>
+        <v>0.562686042667181</v>
       </c>
     </row>
     <row r="15">
@@ -3829,19 +3829,19 @@
         <v>2921</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7960</v>
+        <v>7574</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07364451392178288</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02176999701833254</v>
+        <v>0.02199844928048193</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.200681018490332</v>
+        <v>0.1909454828114666</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -3850,19 +3850,19 @@
         <v>2921</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>287</v>
+        <v>871</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7208</v>
+        <v>8140</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03381501919666213</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003322610875650617</v>
+        <v>0.01008565853732557</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08344111395809876</v>
+        <v>0.09421948659239224</v>
       </c>
     </row>
     <row r="16">
@@ -3883,19 +3883,19 @@
         <v>54957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45886</v>
+        <v>45423</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61888</v>
+        <v>62015</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7247657791830682</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6051405327073294</v>
+        <v>0.5990334155480928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8161729434271704</v>
+        <v>0.8178549231020057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -3904,19 +3904,19 @@
         <v>19349</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12348</v>
+        <v>12547</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27140</v>
+        <v>26635</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3541554950372139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2260031009666106</v>
+        <v>0.2296448576541275</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4967559108399166</v>
+        <v>0.4875078490086147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -3925,19 +3925,19 @@
         <v>74306</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61939</v>
+        <v>61587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85134</v>
+        <v>86505</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5695611957906438</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4747652417263806</v>
+        <v>0.4720679111269412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6525560324308943</v>
+        <v>0.6630633536133855</v>
       </c>
     </row>
     <row r="17">
@@ -3954,19 +3954,19 @@
         <v>6460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2233</v>
+        <v>3061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13318</v>
+        <v>13374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08519893771500241</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02945077257120616</v>
+        <v>0.04036976280969009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1756371513677741</v>
+        <v>0.1763742736766051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3975,19 +3975,19 @@
         <v>3220</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1011</v>
+        <v>974</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8744</v>
+        <v>8630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05892845708262672</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01850737729892106</v>
+        <v>0.01783427915588259</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1600491443138097</v>
+        <v>0.1579562740666308</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -3996,19 +3996,19 @@
         <v>9680</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4408</v>
+        <v>5059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17231</v>
+        <v>18038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07419735687257226</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03378714973505295</v>
+        <v>0.03877750556231776</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1320762138889873</v>
+        <v>0.1382630808526658</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>14410</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8478</v>
+        <v>7703</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22392</v>
+        <v>22705</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1900352831019295</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1118030494413928</v>
+        <v>0.1015886654130689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2953055708661302</v>
+        <v>0.2994369056427325</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -4046,19 +4046,19 @@
         <v>16774</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10221</v>
+        <v>10499</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24171</v>
+        <v>24601</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3070156073643214</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1870733165997051</v>
+        <v>0.1921636817959238</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4424112913036956</v>
+        <v>0.4502828337887936</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -4067,19 +4067,19 @@
         <v>31184</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21852</v>
+        <v>21607</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>42901</v>
+        <v>42789</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2390244322673368</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1674967271207483</v>
+        <v>0.1656218748853386</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3288357003431404</v>
+        <v>0.3279797088410901</v>
       </c>
     </row>
     <row r="19">
@@ -4109,19 +4109,19 @@
         <v>15292</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8784</v>
+        <v>8849</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23615</v>
+        <v>23201</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2799004405158378</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1607801960978173</v>
+        <v>0.1619648856016472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.432228773515841</v>
+        <v>0.4246626505114628</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -4130,19 +4130,19 @@
         <v>15292</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9159</v>
+        <v>9014</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26310</v>
+        <v>25513</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1172170150694472</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07020532173307366</v>
+        <v>0.06909193339096774</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2016695509341166</v>
+        <v>0.1955585953649682</v>
       </c>
     </row>
     <row r="20">
@@ -4163,19 +4163,19 @@
         <v>46283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34827</v>
+        <v>34549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60290</v>
+        <v>59636</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2668730393496685</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2008189935899171</v>
+        <v>0.1992119947323403</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3476397098281988</v>
+        <v>0.3438674474828732</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -4184,19 +4184,19 @@
         <v>24660</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16526</v>
+        <v>16779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35094</v>
+        <v>34528</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2575357994138405</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1725832176104419</v>
+        <v>0.1752295668879041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3665004145851777</v>
+        <v>0.3605954485528362</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>64</v>
@@ -4205,19 +4205,19 @@
         <v>70943</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>56565</v>
+        <v>56480</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86045</v>
+        <v>87119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2635515480884838</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2101390210445722</v>
+        <v>0.2098246650639264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3196571330352728</v>
+        <v>0.3236461851233802</v>
       </c>
     </row>
     <row r="21">
@@ -4234,19 +4234,19 @@
         <v>112330</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97429</v>
+        <v>98592</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>125093</v>
+        <v>125659</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6477111715113095</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5617901242274512</v>
+        <v>0.5684954378256614</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7213024478812704</v>
+        <v>0.7245677848815857</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -4255,19 +4255,19 @@
         <v>23929</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16249</v>
+        <v>16489</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33898</v>
+        <v>32646</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2499019569868085</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1696988304157934</v>
+        <v>0.1721996135427099</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.354006203798671</v>
+        <v>0.3409338988218087</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>125</v>
@@ -4276,19 +4276,19 @@
         <v>136259</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118861</v>
+        <v>118798</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>154079</v>
+        <v>152770</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5062004211457934</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.441568341644047</v>
+        <v>0.441334709848013</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.57240384139291</v>
+        <v>0.567538989811698</v>
       </c>
     </row>
     <row r="22">
@@ -4305,19 +4305,19 @@
         <v>14813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8337</v>
+        <v>8172</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24960</v>
+        <v>25320</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08541578913902198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04807354783855875</v>
+        <v>0.04712215385883698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.143925933852736</v>
+        <v>0.1459999578896768</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4326,19 +4326,19 @@
         <v>7675</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3218</v>
+        <v>3225</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14805</v>
+        <v>14728</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08014855794945394</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03361202332813576</v>
+        <v>0.03368431689262165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1546162590730396</v>
+        <v>0.1538077092085781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4347,19 +4347,19 @@
         <v>22488</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14313</v>
+        <v>14628</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34833</v>
+        <v>33994</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08354210242999148</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05317366218623892</v>
+        <v>0.05434409366693899</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1294062187285842</v>
+        <v>0.1262887736897513</v>
       </c>
     </row>
     <row r="23">
@@ -4389,19 +4389,19 @@
         <v>39490</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29669</v>
+        <v>30200</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48899</v>
+        <v>49511</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.412413685649897</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3098472279117109</v>
+        <v>0.3153923103800236</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5106719126960455</v>
+        <v>0.5170650129204307</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>37</v>
@@ -4410,19 +4410,19 @@
         <v>39490</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29140</v>
+        <v>29000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>53557</v>
+        <v>52790</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1467059283357313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.108256519234233</v>
+        <v>0.1077358299293689</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1989650498382325</v>
+        <v>0.1961164865773054</v>
       </c>
     </row>
     <row r="24">
@@ -4443,19 +4443,19 @@
         <v>4241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14161</v>
+        <v>11422</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01387556375336982</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003616890150329228</v>
+        <v>0.00357644362923614</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04632731916920461</v>
+        <v>0.03736818704900254</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4464,19 +4464,19 @@
         <v>3074</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9313</v>
+        <v>8292</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01362869661075486</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00440969130910151</v>
+        <v>0.004382054130731637</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04128564893883827</v>
+        <v>0.0367567652942989</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -4485,19 +4485,19 @@
         <v>7316</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3106</v>
+        <v>3095</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15548</v>
+        <v>16276</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01377073897971728</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005846383594435981</v>
+        <v>0.005826508961994275</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02926667604205847</v>
+        <v>0.03063678374681398</v>
       </c>
     </row>
     <row r="25">
@@ -4514,19 +4514,19 @@
         <v>298377</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>287821</v>
+        <v>289524</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>302707</v>
+        <v>303486</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9761378044144797</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9416043667048718</v>
+        <v>0.9471747970804469</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9903037269908053</v>
+        <v>0.992850433373932</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>123</v>
@@ -4535,19 +4535,19 @@
         <v>129598</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>114165</v>
+        <v>113721</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>144744</v>
+        <v>143119</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5745080071890935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5060949879237276</v>
+        <v>0.5041265974385711</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6416511097375842</v>
+        <v>0.6344485880517121</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>396</v>
@@ -4556,19 +4556,19 @@
         <v>427975</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>408975</v>
+        <v>407105</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>445347</v>
+        <v>444515</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8055976825484837</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7698326362145566</v>
+        <v>0.7663116630274445</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8382968786002029</v>
+        <v>0.8367304280338838</v>
       </c>
     </row>
     <row r="26">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5514</v>
+        <v>5697</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003197681428150204</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01803840955312416</v>
+        <v>0.01863671069410479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -4606,19 +4606,19 @@
         <v>12947</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7013</v>
+        <v>6898</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21246</v>
+        <v>20119</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05739545067944632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0310878234679363</v>
+        <v>0.03057976202451206</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09418540704366755</v>
+        <v>0.08918650271217546</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -4627,19 +4627,19 @@
         <v>13925</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7804</v>
+        <v>8083</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23744</v>
+        <v>22701</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02621114864804936</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01469043360347864</v>
+        <v>0.01521581293100904</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04469493585658487</v>
+        <v>0.04273095233906881</v>
       </c>
     </row>
     <row r="27">
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10165</v>
+        <v>10514</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.006788950404000235</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0332552725076975</v>
+        <v>0.03439653781199995</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>89</v>
@@ -4677,19 +4677,19 @@
         <v>88927</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>73875</v>
+        <v>76403</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>103180</v>
+        <v>104343</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3942161090979318</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3274887318905725</v>
+        <v>0.3386963521463929</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4573982405415452</v>
+        <v>0.4625557115987136</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>90</v>
@@ -4698,19 +4698,19 @@
         <v>91003</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>75232</v>
+        <v>75890</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>109203</v>
+        <v>109634</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1712983451608378</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1416117570991882</v>
+        <v>0.1428519441443742</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2055569121828573</v>
+        <v>0.2063696874924475</v>
       </c>
     </row>
     <row r="28">
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4204</v>
+        <v>5268</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004158466367766071</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01689813842943788</v>
+        <v>0.02117387034706504</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -4752,19 +4752,19 @@
         <v>7574</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3270</v>
+        <v>3251</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15343</v>
+        <v>15022</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02555089044389914</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01103211385227993</v>
+        <v>0.01096525253572444</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05175815600809849</v>
+        <v>0.05067420362620537</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -4773,19 +4773,19 @@
         <v>8609</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3351</v>
+        <v>4243</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16284</v>
+        <v>15978</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01578944898219364</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00614674319473105</v>
+        <v>0.007781430465135578</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02986702002492249</v>
+        <v>0.02930524849541022</v>
       </c>
     </row>
     <row r="29">
@@ -4802,7 +4802,7 @@
         <v>247754</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>244585</v>
+        <v>243521</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>248789</v>
@@ -4811,7 +4811,7 @@
         <v>0.9958415336322339</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9831018615705621</v>
+        <v>0.978826129652935</v>
       </c>
       <c r="I29" s="6" t="n">
         <v>1</v>
@@ -4823,19 +4823,19 @@
         <v>109239</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>91551</v>
+        <v>92533</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127215</v>
+        <v>126109</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.368506403617204</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.308836058571528</v>
+        <v>0.312149387527984</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4291460789987325</v>
+        <v>0.4254154480897076</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>318</v>
@@ -4844,19 +4844,19 @@
         <v>356994</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>333747</v>
+        <v>332695</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>380281</v>
+        <v>380370</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.654761721234302</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6121243121677317</v>
+        <v>0.6101961585661119</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.697472978212645</v>
+        <v>0.6976365435567273</v>
       </c>
     </row>
     <row r="30">
@@ -4886,19 +4886,19 @@
         <v>11674</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5371</v>
+        <v>6184</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20387</v>
+        <v>20482</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03938038803336527</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01811731408925596</v>
+        <v>0.02086054536004965</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06877281505037311</v>
+        <v>0.06909224534500986</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -4907,19 +4907,19 @@
         <v>11674</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6210</v>
+        <v>5486</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21072</v>
+        <v>21799</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02141097273200082</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01138981167896199</v>
+        <v>0.01006135942528114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03864803986912993</v>
+        <v>0.03998175370493373</v>
       </c>
     </row>
     <row r="31">
@@ -4949,19 +4949,19 @@
         <v>176719</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>158138</v>
+        <v>159549</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>193285</v>
+        <v>193382</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5961409652564148</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5334616446631304</v>
+        <v>0.5382219318999553</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6520239034291163</v>
+        <v>0.6523510548240211</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>159</v>
@@ -4970,19 +4970,19 @@
         <v>176719</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>154223</v>
+        <v>152181</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>199435</v>
+        <v>199970</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3241196592760692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.282861039920744</v>
+        <v>0.2791147771741632</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3657831202517735</v>
+        <v>0.366765518198768</v>
       </c>
     </row>
     <row r="32">
@@ -5003,7 +5003,7 @@
         <v>142949</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>122655</v>
+        <v>121132</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>166259</v>
@@ -5012,10 +5012,10 @@
         <v>0.1640990119750243</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1408017289999829</v>
+        <v>0.1390538884624981</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1908579410315716</v>
+        <v>0.1908580419640886</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>69</v>
@@ -5024,19 +5024,19 @@
         <v>78409</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61792</v>
+        <v>61793</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>96313</v>
+        <v>98021</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1050939018470466</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08282129013605381</v>
+        <v>0.0828222943730213</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1290909552259382</v>
+        <v>0.1313796266793991</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>198</v>
@@ -5045,19 +5045,19 @@
         <v>221358</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>194701</v>
+        <v>192998</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>250629</v>
+        <v>252948</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.136877384938294</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1203935877595559</v>
+        <v>0.1193409914167878</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1549766888935842</v>
+        <v>0.1564107801828016</v>
       </c>
     </row>
     <row r="33">
@@ -5074,19 +5074,19 @@
         <v>665857</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>640382</v>
+        <v>638648</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>693599</v>
+        <v>691136</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7643722172471359</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7351277119032116</v>
+        <v>0.7331375675889042</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7962191315817851</v>
+        <v>0.7933918291184787</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>246</v>
@@ -5095,19 +5095,19 @@
         <v>265986</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>241166</v>
+        <v>239826</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>293982</v>
+        <v>293139</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3565079779123031</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3232415195280267</v>
+        <v>0.3214452472318024</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3940327921908051</v>
+        <v>0.3929030334993346</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>849</v>
@@ -5116,19 +5116,19 @@
         <v>931843</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>891489</v>
+        <v>894671</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>975160</v>
+        <v>976959</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5762066807247643</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5512540068406655</v>
+        <v>0.5532218172313791</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6029920275792126</v>
+        <v>0.6041042273084907</v>
       </c>
     </row>
     <row r="34">
@@ -5145,19 +5145,19 @@
         <v>59271</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44733</v>
+        <v>44727</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>76712</v>
+        <v>76245</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06804048855515352</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05135175608165145</v>
+        <v>0.05134418808501572</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08806155710320718</v>
+        <v>0.08752613757913985</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>88</v>
@@ -5166,19 +5166,19 @@
         <v>96076</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>77433</v>
+        <v>80554</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>114828</v>
+        <v>119100</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1287732025962496</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1037859800721784</v>
+        <v>0.1079687871258593</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1539071039322844</v>
+        <v>0.1596327032062562</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>140</v>
@@ -5187,19 +5187,19 @@
         <v>155347</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>132778</v>
+        <v>130267</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>184426</v>
+        <v>181203</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09605913451597543</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08210332864066042</v>
+        <v>0.08055102419779697</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1140403859354958</v>
+        <v>0.1120471750970513</v>
       </c>
     </row>
     <row r="35">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13266</v>
+        <v>11196</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003488282222686253</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01522916494479359</v>
+        <v>0.01285292768263695</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>301</v>
@@ -5237,19 +5237,19 @@
         <v>323350</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>297891</v>
+        <v>296351</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>352856</v>
+        <v>352740</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4333951790317285</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3992711410524238</v>
+        <v>0.397207912069667</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4729422009320348</v>
+        <v>0.47278775187846</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>303</v>
@@ -5258,19 +5258,19 @@
         <v>326389</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>292579</v>
+        <v>293286</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>358528</v>
+        <v>358646</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2018230566188605</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1809168995807804</v>
+        <v>0.1813541235031616</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2216964280656009</v>
+        <v>0.2217693350566452</v>
       </c>
     </row>
     <row r="36">
@@ -5726,19 +5726,19 @@
         <v>4983</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1967</v>
+        <v>1931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9240</v>
+        <v>8969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3450961526585781</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1362461687598994</v>
+        <v>0.1337351700962259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6398803720232199</v>
+        <v>0.6211340667543642</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5625</v>
+        <v>5392</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1482740293060276</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4377746087123359</v>
+        <v>0.4196077778838178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -5768,19 +5768,19 @@
         <v>6888</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2915</v>
+        <v>2930</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11849</v>
+        <v>11770</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2524205290651551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.106813857803421</v>
+        <v>0.1073576104571824</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4342050510352648</v>
+        <v>0.4312947871201285</v>
       </c>
     </row>
     <row r="9">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5429</v>
+        <v>5348</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1377550278125624</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3759955514575012</v>
+        <v>0.3703904051834386</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6057</v>
+        <v>6226</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07289172439828638</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.221946960228593</v>
+        <v>0.2281500843126035</v>
       </c>
     </row>
     <row r="10">
@@ -5860,19 +5860,19 @@
         <v>7468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4059</v>
+        <v>4093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10688</v>
+        <v>11518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5171488195288595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2810866856723737</v>
+        <v>0.2834182337776651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7401889276982443</v>
+        <v>0.7976308391082224</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5881,7 +5881,7 @@
         <v>10945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7225</v>
+        <v>7458</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>12850</v>
@@ -5890,7 +5890,7 @@
         <v>0.8517259706939724</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5622253912876651</v>
+        <v>0.5803922221161801</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5902,19 +5902,19 @@
         <v>18412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13290</v>
+        <v>13215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22534</v>
+        <v>23239</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6746877465365585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4870214109575754</v>
+        <v>0.4842743237510301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8257687827076987</v>
+        <v>0.8515967771136083</v>
       </c>
     </row>
     <row r="11">
@@ -5982,19 +5982,19 @@
         <v>15373</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9894</v>
+        <v>10151</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20677</v>
+        <v>20862</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.520690540461286</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3350907039778584</v>
+        <v>0.3438074449709679</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7003065713229331</v>
+        <v>0.7065723710155029</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -6003,19 +6003,19 @@
         <v>7100</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3376</v>
+        <v>2961</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12244</v>
+        <v>12905</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2478400678437642</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1178597085724365</v>
+        <v>0.1033547671176424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.427408732117185</v>
+        <v>0.4504692193268567</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -6024,19 +6024,19 @@
         <v>22473</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15231</v>
+        <v>15336</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29667</v>
+        <v>30835</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3863235811908421</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2618189759893472</v>
+        <v>0.263640254131286</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5099955750499203</v>
+        <v>0.530069656270965</v>
       </c>
     </row>
     <row r="13">
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4689</v>
+        <v>5617</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03115772460737294</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1588262709797204</v>
+        <v>0.1902297863479986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -6074,19 +6074,19 @@
         <v>2616</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7036</v>
+        <v>6268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09132284610447326</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02883388312222852</v>
+        <v>0.02865526132765937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2456000352952657</v>
+        <v>0.2188016960951991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -6098,16 +6098,16 @@
         <v>878</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8102</v>
+        <v>7938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06078642325740065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01509069560100059</v>
+        <v>0.01508547316413219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.139278394950319</v>
+        <v>0.1364550562669078</v>
       </c>
     </row>
     <row r="14">
@@ -6124,19 +6124,19 @@
         <v>12297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7095</v>
+        <v>6513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17794</v>
+        <v>17754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4164992949485713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2403206514430922</v>
+        <v>0.2205892238076111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6026801139435792</v>
+        <v>0.6013146530365586</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -6145,19 +6145,19 @@
         <v>16126</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11182</v>
+        <v>10204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21152</v>
+        <v>21245</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5629105767757131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3903251482130696</v>
+        <v>0.3562117325461832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7383624467825393</v>
+        <v>0.741611531445184</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -6166,19 +6166,19 @@
         <v>28423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21299</v>
+        <v>20547</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35966</v>
+        <v>36021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4886004665290148</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3661397427563738</v>
+        <v>0.353206435824283</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6182754422177472</v>
+        <v>0.6192128918560599</v>
       </c>
     </row>
     <row r="15">
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4743</v>
+        <v>4716</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03165243998276975</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1606536876804565</v>
+        <v>0.159713844450865</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -6216,19 +6216,19 @@
         <v>3690</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8307</v>
+        <v>8329</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1287993682753411</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03197654384504396</v>
+        <v>0.03242587665565999</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2899933092329615</v>
+        <v>0.2907368751218093</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -6237,19 +6237,19 @@
         <v>4624</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1799</v>
+        <v>1831</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10072</v>
+        <v>10044</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07949306577283269</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03092692018979163</v>
+        <v>0.03147552774719092</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1731437932375629</v>
+        <v>0.1726551722135046</v>
       </c>
     </row>
     <row r="16">
@@ -6270,19 +6270,19 @@
         <v>33939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24904</v>
+        <v>25921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42998</v>
+        <v>43293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4306080962864528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3159665908309315</v>
+        <v>0.3288764443897795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5455384486287661</v>
+        <v>0.5492850007491736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -6291,19 +6291,19 @@
         <v>15797</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9415</v>
+        <v>9325</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23450</v>
+        <v>22830</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3336954971894295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1988844731421203</v>
+        <v>0.1969842925989131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4953441971115811</v>
+        <v>0.4822518208523915</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -6312,19 +6312,19 @@
         <v>49736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38697</v>
+        <v>38494</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60900</v>
+        <v>61771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3942418794928235</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3067350885759392</v>
+        <v>0.3051280644733115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4827278832638127</v>
+        <v>0.4896375419535285</v>
       </c>
     </row>
     <row r="17">
@@ -6341,19 +6341,19 @@
         <v>26869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18988</v>
+        <v>17987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36072</v>
+        <v>36050</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3409023310082944</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2409169732893953</v>
+        <v>0.2282152580019508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.457662119799672</v>
+        <v>0.4573905871312907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -6362,19 +6362,19 @@
         <v>11229</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6246</v>
+        <v>5982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17413</v>
+        <v>17602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2371893394437808</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1319489220097348</v>
+        <v>0.1263602592291209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3678214639764117</v>
+        <v>0.3718184150254367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -6383,19 +6383,19 @@
         <v>38097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28654</v>
+        <v>26590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49989</v>
+        <v>49514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3019842835026755</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2271290200392428</v>
+        <v>0.2107729500192428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3962459032706753</v>
+        <v>0.3924792692230436</v>
       </c>
     </row>
     <row r="18">
@@ -6412,19 +6412,19 @@
         <v>18009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10948</v>
+        <v>11670</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26186</v>
+        <v>27991</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2284895727052528</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1389076326137043</v>
+        <v>0.1480656624029529</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3322413595542167</v>
+        <v>0.3551391631607133</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -6433,19 +6433,19 @@
         <v>8734</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4041</v>
+        <v>4163</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15009</v>
+        <v>15453</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.184498773684377</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08535963471075644</v>
+        <v>0.08794273939190431</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.317047555858588</v>
+        <v>0.3264348303896384</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -6454,19 +6454,19 @@
         <v>26743</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18109</v>
+        <v>18206</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38197</v>
+        <v>37584</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2119821325063109</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1435449115788703</v>
+        <v>0.1443105708590147</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3027712679149618</v>
+        <v>0.2979133214071905</v>
       </c>
     </row>
     <row r="19">
@@ -6496,19 +6496,19 @@
         <v>11580</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5950</v>
+        <v>6138</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18087</v>
+        <v>17788</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2446163896824128</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1256802475645561</v>
+        <v>0.1296501710749615</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3820613871993596</v>
+        <v>0.3757529364925941</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -6517,19 +6517,19 @@
         <v>11580</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6247</v>
+        <v>6179</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19524</v>
+        <v>19425</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09179170449819012</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04951871285299768</v>
+        <v>0.04897849169145497</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1547611778265625</v>
+        <v>0.1539750591929973</v>
       </c>
     </row>
     <row r="20">
@@ -6550,19 +6550,19 @@
         <v>31144</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21593</v>
+        <v>21280</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42908</v>
+        <v>42417</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1554824419425428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1078028157215786</v>
+        <v>0.106241355349942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2142144346079819</v>
+        <v>0.211762979672127</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -6571,19 +6571,19 @@
         <v>20771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13832</v>
+        <v>13306</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30881</v>
+        <v>29598</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1871331993604214</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1246192739543218</v>
+        <v>0.1198792614358749</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2782266896225131</v>
+        <v>0.2666634421630407</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -6592,19 +6592,19 @@
         <v>51914</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>39779</v>
+        <v>37780</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>67355</v>
+        <v>66153</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1667676015431618</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1277852305386037</v>
+        <v>0.12136227145497</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2163680637849787</v>
+        <v>0.2125077750293364</v>
       </c>
     </row>
     <row r="21">
@@ -6621,19 +6621,19 @@
         <v>153980</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>141277</v>
+        <v>141658</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>166163</v>
+        <v>165247</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7687348324039842</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7053154469188972</v>
+        <v>0.7072193085612524</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8295561186589213</v>
+        <v>0.8249835413832114</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -6642,19 +6642,19 @@
         <v>47221</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35867</v>
+        <v>36785</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>57492</v>
+        <v>57912</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4254386679321321</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3231446956440996</v>
+        <v>0.3314146538088456</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5179732879516148</v>
+        <v>0.5217544086566692</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>178</v>
@@ -6663,19 +6663,19 @@
         <v>201201</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>184397</v>
+        <v>183914</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>217642</v>
+        <v>220302</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6463316950889575</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5923498168131821</v>
+        <v>0.5907985746505762</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.699146140987988</v>
+        <v>0.7076904783285581</v>
       </c>
     </row>
     <row r="22">
@@ -6692,19 +6692,19 @@
         <v>15180</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8610</v>
+        <v>8685</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24615</v>
+        <v>23951</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07578272565347298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04298409851926852</v>
+        <v>0.04336093049163749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1228875983339734</v>
+        <v>0.1195751610539656</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -6713,19 +6713,19 @@
         <v>10719</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4787</v>
+        <v>5166</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19485</v>
+        <v>18558</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09657382062892589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04312853196760578</v>
+        <v>0.04654433730930229</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1755484909664312</v>
+        <v>0.1671960470638362</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -6734,19 +6734,19 @@
         <v>25899</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16663</v>
+        <v>17054</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37603</v>
+        <v>37614</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08319584446045222</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05352644690544961</v>
+        <v>0.05478469720386433</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1207939588483809</v>
+        <v>0.1208284628178043</v>
       </c>
     </row>
     <row r="23">
@@ -6776,19 +6776,19 @@
         <v>33251</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23061</v>
+        <v>24364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43119</v>
+        <v>44150</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.299579077617241</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2077650196038673</v>
+        <v>0.2195086272764102</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3884777772096917</v>
+        <v>0.3977708172080924</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -6797,19 +6797,19 @@
         <v>33251</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23123</v>
+        <v>23266</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45308</v>
+        <v>45470</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1068156966760951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07427970097192206</v>
+        <v>0.07473884237074489</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1455471034943451</v>
+        <v>0.146065913443704</v>
       </c>
     </row>
     <row r="24">
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6422</v>
+        <v>5330</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003276877581802337</v>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01986657869579599</v>
+        <v>0.01648939408404394</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -6851,19 +6851,19 @@
         <v>4086</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9547</v>
+        <v>9723</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01745759593635441</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004662601011347708</v>
+        <v>0.004609843497740516</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04079097814629265</v>
+        <v>0.04154100226379112</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -6872,19 +6872,19 @@
         <v>5145</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1918</v>
+        <v>1989</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11984</v>
+        <v>11534</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009232243346319179</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003441359490641276</v>
+        <v>0.003569199147037545</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02150257396746899</v>
+        <v>0.02069517662432559</v>
       </c>
     </row>
     <row r="25">
@@ -6901,7 +6901,7 @@
         <v>321168</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>315864</v>
+        <v>315991</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>323265</v>
@@ -6910,7 +6910,7 @@
         <v>0.9935121432013193</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9771056617351004</v>
+        <v>0.9774981853810533</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1</v>
@@ -6922,19 +6922,19 @@
         <v>142846</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128131</v>
+        <v>125210</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157489</v>
+        <v>156934</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6103156692950639</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5474488334456811</v>
+        <v>0.5349666199173376</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6728784148662327</v>
+        <v>0.6705104594744449</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>445</v>
@@ -6943,19 +6943,19 @@
         <v>464013</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>445281</v>
+        <v>444304</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>481858</v>
+        <v>481959</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8325841066429788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7989717892609542</v>
+        <v>0.7972197262814603</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8646029833225524</v>
+        <v>0.8647838928173486</v>
       </c>
     </row>
     <row r="26">
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5184</v>
+        <v>6157</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00321097921687839</v>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01603558104846929</v>
+        <v>0.01904485267358539</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -6993,19 +6993,19 @@
         <v>22708</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14671</v>
+        <v>14919</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32169</v>
+        <v>32963</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09702030058906752</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0626834861261525</v>
+        <v>0.06374259112768847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1374448124191778</v>
+        <v>0.1408380831304663</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -7014,19 +7014,19 @@
         <v>23746</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15263</v>
+        <v>15099</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34454</v>
+        <v>35234</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04260734877478294</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02738654730939418</v>
+        <v>0.0270916093809677</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0618216661672064</v>
+        <v>0.06322056459375178</v>
       </c>
     </row>
     <row r="27">
@@ -7056,19 +7056,19 @@
         <v>67476</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52860</v>
+        <v>54026</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>80910</v>
+        <v>81727</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2882964572900835</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2258481421773732</v>
+        <v>0.2308290188255876</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3456926713821508</v>
+        <v>0.3491815459318376</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>63</v>
@@ -7077,19 +7077,19 @@
         <v>67476</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>53146</v>
+        <v>51799</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>84454</v>
+        <v>83368</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1210736162195704</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09536118123956187</v>
+        <v>0.09294342066405632</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1515374108039521</v>
+        <v>0.1495879140249973</v>
       </c>
     </row>
     <row r="28">
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5480</v>
+        <v>6331</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007226879271534016</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0218865113092116</v>
+        <v>0.0252847073690388</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -7131,19 +7131,19 @@
         <v>3945</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10605</v>
+        <v>10608</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01348423688830192</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004216451385178658</v>
+        <v>0.004226892236196061</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03625143680540457</v>
+        <v>0.03626232376229131</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -7152,19 +7152,19 @@
         <v>5754</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2143</v>
+        <v>1793</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12598</v>
+        <v>13275</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01059837371789889</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00394714486106972</v>
+        <v>0.003302108369689267</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02320322654543854</v>
+        <v>0.02445099891482764</v>
       </c>
     </row>
     <row r="29">
@@ -7181,19 +7181,19 @@
         <v>247694</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>243162</v>
+        <v>243243</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>249518</v>
+        <v>249509</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9891877571069739</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9710891323373131</v>
+        <v>0.9714142139676233</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9964738156183651</v>
+        <v>0.9964371182202512</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -7202,19 +7202,19 @@
         <v>114302</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>94548</v>
+        <v>95261</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>132703</v>
+        <v>131698</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3907243276967691</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3231973475027483</v>
+        <v>0.3256341753318215</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4536252016396394</v>
+        <v>0.4501899391137276</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>377</v>
@@ -7223,19 +7223,19 @@
         <v>361996</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>337695</v>
+        <v>337018</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>386480</v>
+        <v>385979</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.666732776557023</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6219742955770726</v>
+        <v>0.6207282592008704</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7118282750997638</v>
+        <v>0.7109059657783745</v>
       </c>
     </row>
     <row r="30">
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5321</v>
+        <v>3645</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.003585363621492029</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02124975203103276</v>
+        <v>0.01455657635798769</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -7273,19 +7273,19 @@
         <v>28535</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18707</v>
+        <v>17847</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>44423</v>
+        <v>42307</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09754140694231028</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06394770636074472</v>
+        <v>0.0610073502332252</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1518517073301845</v>
+        <v>0.1446196466912056</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -7294,19 +7294,19 @@
         <v>29432</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18394</v>
+        <v>19219</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42128</v>
+        <v>43401</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05420933266070729</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03387818381730424</v>
+        <v>0.03539840300400228</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07759201063052509</v>
+        <v>0.07993724282534383</v>
       </c>
     </row>
     <row r="31">
@@ -7336,19 +7336,19 @@
         <v>148480</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>129235</v>
+        <v>129110</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>168690</v>
+        <v>168770</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5075575874882863</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4417689443197637</v>
+        <v>0.441342435809472</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.576640714202963</v>
+        <v>0.576912854398798</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>113</v>
@@ -7357,19 +7357,19 @@
         <v>148480</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>125461</v>
+        <v>124663</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>171425</v>
+        <v>170445</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.273474474727402</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2310768221115447</v>
+        <v>0.2296067711698694</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3157342608542874</v>
+        <v>0.3139288938816001</v>
       </c>
     </row>
     <row r="32">
@@ -7390,19 +7390,19 @@
         <v>88308</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71421</v>
+        <v>71134</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>107959</v>
+        <v>108078</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09798565194205118</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07924797404986965</v>
+        <v>0.07892967107060074</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1197906245593155</v>
+        <v>0.1199222278753561</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -7411,19 +7411,19 @@
         <v>53603</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39801</v>
+        <v>40300</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69152</v>
+        <v>69067</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07272783861075721</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05400155661627228</v>
+        <v>0.0546778712543319</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09382418150268458</v>
+        <v>0.09370840149034666</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>129</v>
@@ -7432,19 +7432,19 @@
         <v>141911</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>119826</v>
+        <v>121065</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>168147</v>
+        <v>168421</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08662244059720534</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07314175485620428</v>
+        <v>0.0738976741931181</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1026365027858154</v>
+        <v>0.102803927804984</v>
       </c>
     </row>
     <row r="33">
@@ -7461,19 +7461,19 @@
         <v>752619</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>728582</v>
+        <v>728215</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>775721</v>
+        <v>776323</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8350991170595234</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8084283891039097</v>
+        <v>0.8080205833460281</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8607332809633877</v>
+        <v>0.8614011062200717</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>275</v>
@@ -7482,19 +7482,19 @@
         <v>318213</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>290505</v>
+        <v>289624</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>346154</v>
+        <v>346223</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4317436611666445</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3941497495051181</v>
+        <v>0.3929548177986558</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4696533886420135</v>
+        <v>0.469747276393998</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1041</v>
@@ -7503,19 +7503,19 @@
         <v>1070832</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1025664</v>
+        <v>1031420</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1110123</v>
+        <v>1108763</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6536339509230447</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.626063172720514</v>
+        <v>0.6295766450838158</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6776167651800175</v>
+        <v>0.6767869663156516</v>
       </c>
     </row>
     <row r="34">
@@ -7532,19 +7532,19 @@
         <v>59372</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>45202</v>
+        <v>46219</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>75899</v>
+        <v>76049</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06587829093120284</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05015537145719674</v>
+        <v>0.05128401881280647</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08421653487939723</v>
+        <v>0.08438279717292076</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>99</v>
@@ -7553,19 +7553,19 @@
         <v>108387</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>91792</v>
+        <v>90045</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>130375</v>
+        <v>129469</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1470565483102262</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1245413684444014</v>
+        <v>0.1221704333870897</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1768892627159373</v>
+        <v>0.1756601815752476</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>154</v>
@@ -7574,19 +7574,19 @@
         <v>167759</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>144061</v>
+        <v>143448</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>195526</v>
+        <v>191991</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1023994926324301</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08793467438462153</v>
+        <v>0.08756012604729652</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1193484425406994</v>
+        <v>0.1171908669449161</v>
       </c>
     </row>
     <row r="35">
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4678</v>
+        <v>4701</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001036940067222523</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.005190194607655351</v>
+        <v>0.005216628027771099</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>220</v>
@@ -7624,19 +7624,19 @@
         <v>264478</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>237095</v>
+        <v>236640</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>292585</v>
+        <v>292901</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3588368610137004</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3216843490575569</v>
+        <v>0.3210665372715517</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3969721704478334</v>
+        <v>0.3974006502527034</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>221</v>
@@ -7645,19 +7645,19 @@
         <v>265412</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>233052</v>
+        <v>234152</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>300481</v>
+        <v>298417</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1620071740124772</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1422545171796998</v>
+        <v>0.1429257416531619</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.183413171121515</v>
+        <v>0.1821534292901136</v>
       </c>
     </row>
     <row r="36">
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5336</v>
+        <v>5592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1547070813028011</v>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6381304564108436</v>
+        <v>0.6687328203084915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -8153,16 +8153,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5922</v>
+        <v>6545</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1113088241160982</v>
+        <v>0.1113088241160983</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4504934109084293</v>
+        <v>0.4978954725107482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -8174,16 +8174,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8392</v>
+        <v>8477</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1281813936604062</v>
+        <v>0.1281813936604061</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3901928577732499</v>
+        <v>0.3941229903464589</v>
       </c>
     </row>
     <row r="9">
@@ -8247,19 +8247,19 @@
         <v>4610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7372</v>
+        <v>7358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5512908854343395</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1621364581575419</v>
+        <v>0.1612845351047812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8815722155244156</v>
+        <v>0.8799627523336148</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -8268,16 +8268,16 @@
         <v>10568</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5811</v>
+        <v>6379</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>13146</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8039087229290081</v>
+        <v>0.8039087229290083</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4420577373163273</v>
+        <v>0.4852280311562319</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -8289,19 +8289,19 @@
         <v>15178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9614</v>
+        <v>9911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19011</v>
+        <v>19265</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7056948243172584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4469865727806026</v>
+        <v>0.4608095466085517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8839032404228382</v>
+        <v>0.8957231402045592</v>
       </c>
     </row>
     <row r="11">
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6450</v>
+        <v>6573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2940020332628594</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7713877997176002</v>
+        <v>0.7860274016050159</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -8342,16 +8342,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4836</v>
+        <v>5195</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08478245295489366</v>
+        <v>0.08478245295489369</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3678526838744818</v>
+        <v>0.3951632348869231</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -8360,19 +8360,19 @@
         <v>3573</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1083</v>
+        <v>1046</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9249</v>
+        <v>9132</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1661237820223354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0503644212566394</v>
+        <v>0.04863020692524708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4300286161629936</v>
+        <v>0.4245835463773756</v>
       </c>
     </row>
     <row r="12">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6964</v>
+        <v>6729</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1109502361529028</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3342519614348181</v>
+        <v>0.3229625145858327</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -8414,19 +8414,19 @@
         <v>4101</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1865</v>
+        <v>1465</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8064</v>
+        <v>7801</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1468137439110916</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06677670236430945</v>
+        <v>0.05243304161011666</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2886993742323876</v>
+        <v>0.2793030203202151</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -8435,19 +8435,19 @@
         <v>6412</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2920</v>
+        <v>2784</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12094</v>
+        <v>12152</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1314916498207286</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05988381947413424</v>
+        <v>0.05709187247973772</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2479859908264725</v>
+        <v>0.2491884950615751</v>
       </c>
     </row>
     <row r="13">
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3428</v>
+        <v>3736</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02670602568293303</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1227278996848696</v>
+        <v>0.1337598075920358</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -8501,16 +8501,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4350</v>
+        <v>3951</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01529631525938643</v>
+        <v>0.01529631525938642</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08919474670067357</v>
+        <v>0.08102738940945739</v>
       </c>
     </row>
     <row r="14">
@@ -8527,19 +8527,19 @@
         <v>10849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5812</v>
+        <v>6079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15613</v>
+        <v>15505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5207308450587942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2789489823914733</v>
+        <v>0.2917902335245921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7493583405942906</v>
+        <v>0.7442031502879248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -8548,19 +8548,19 @@
         <v>17380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13253</v>
+        <v>13165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21636</v>
+        <v>21533</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6222413989690382</v>
+        <v>0.6222413989690383</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4744853802533446</v>
+        <v>0.4713103565416621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7745913132690436</v>
+        <v>0.7709176921362932</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -8569,19 +8569,19 @@
         <v>28230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21597</v>
+        <v>21736</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34267</v>
+        <v>34394</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5788726836536077</v>
+        <v>0.5788726836536074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4428699988715192</v>
+        <v>0.4457028408455295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7026765941263174</v>
+        <v>0.7052728876707247</v>
       </c>
     </row>
     <row r="15">
@@ -8598,19 +8598,19 @@
         <v>7674</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3122</v>
+        <v>3257</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12432</v>
+        <v>12746</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3683189187883029</v>
+        <v>0.368318918788303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1498287814655724</v>
+        <v>0.1563043996366521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5967047041067363</v>
+        <v>0.6117792972287176</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -8619,19 +8619,19 @@
         <v>5705</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2403</v>
+        <v>2640</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9754</v>
+        <v>9837</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2042388314369372</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08602953300188346</v>
+        <v>0.09451955980368502</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3492025067111859</v>
+        <v>0.3521732707011591</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -8640,19 +8640,19 @@
         <v>13379</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7973</v>
+        <v>8001</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19548</v>
+        <v>19804</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2743393512662775</v>
+        <v>0.2743393512662773</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1634879210743545</v>
+        <v>0.164074074370685</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.400844608819774</v>
+        <v>0.406089938012381</v>
       </c>
     </row>
     <row r="16">
@@ -8686,19 +8686,19 @@
         <v>10072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6295</v>
+        <v>5858</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15027</v>
+        <v>14812</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2252199260986538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1407617855156165</v>
+        <v>0.1309831169152897</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3360080164342711</v>
+        <v>0.3312029105392432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -8707,19 +8707,19 @@
         <v>10072</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5824</v>
+        <v>6078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16037</v>
+        <v>16051</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09552841968914805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05523479297459266</v>
+        <v>0.05764744442067909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1521025413575921</v>
+        <v>0.1522304421541067</v>
       </c>
     </row>
     <row r="17">
@@ -8736,19 +8736,19 @@
         <v>8811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3643</v>
+        <v>3895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16078</v>
+        <v>16734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1451183802360372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0600079954937178</v>
+        <v>0.06415606777633284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2648092641028151</v>
+        <v>0.2756185747343498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -8757,19 +8757,19 @@
         <v>2646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5675</v>
+        <v>6608</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05916162623081961</v>
+        <v>0.05916162623081962</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01566348211010207</v>
+        <v>0.01661797280830593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1269029131207975</v>
+        <v>0.1477581039473298</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -8778,19 +8778,19 @@
         <v>11457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5890</v>
+        <v>5408</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20098</v>
+        <v>18884</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1086592932717228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05585940720055926</v>
+        <v>0.05128947091757045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1906132290827854</v>
+        <v>0.179103596192618</v>
       </c>
     </row>
     <row r="18">
@@ -8807,19 +8807,19 @@
         <v>21618</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13826</v>
+        <v>14054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29520</v>
+        <v>29507</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3560459038049795</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2277144265352558</v>
+        <v>0.2314685222513081</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4861903871660574</v>
+        <v>0.4859908640979893</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -8828,19 +8828,19 @@
         <v>19776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14765</v>
+        <v>14607</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25073</v>
+        <v>25121</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4422019861485851</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3301435559999392</v>
+        <v>0.3266092446971618</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5606325034134789</v>
+        <v>0.5617133590628524</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -8849,19 +8849,19 @@
         <v>41394</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31601</v>
+        <v>32659</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51117</v>
+        <v>50892</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3925895371124852</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2997075175600174</v>
+        <v>0.3097465293913663</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4848031068595279</v>
+        <v>0.4826723237096276</v>
       </c>
     </row>
     <row r="19">
@@ -8878,19 +8878,19 @@
         <v>30287</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22656</v>
+        <v>21743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38832</v>
+        <v>38891</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4988357159589833</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3731536308259886</v>
+        <v>0.3581177159647228</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6395601668887299</v>
+        <v>0.6405407325339105</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -8899,19 +8899,19 @@
         <v>12228</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7592</v>
+        <v>7933</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17215</v>
+        <v>17061</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2734164615219415</v>
+        <v>0.2734164615219416</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1697647805252299</v>
+        <v>0.1773853446170388</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3849422198405228</v>
+        <v>0.3814877837440743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -8920,19 +8920,19 @@
         <v>42515</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33737</v>
+        <v>33659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51960</v>
+        <v>52040</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4032227499266439</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3199703334259448</v>
+        <v>0.3192326688959897</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4927993548769326</v>
+        <v>0.4935601992703244</v>
       </c>
     </row>
     <row r="20">
@@ -8953,19 +8953,19 @@
         <v>5426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1869</v>
+        <v>2356</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11681</v>
+        <v>11302</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03022174881723437</v>
+        <v>0.03022174881723436</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01041093638756224</v>
+        <v>0.01312075303540398</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06506673559239978</v>
+        <v>0.06295564300336667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -8974,19 +8974,19 @@
         <v>37412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29725</v>
+        <v>30404</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45801</v>
+        <v>46141</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3186932234462229</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2532072879875101</v>
+        <v>0.2589919974360049</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.390155861624028</v>
+        <v>0.3930537016201841</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -8995,19 +8995,19 @@
         <v>42838</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34214</v>
+        <v>33106</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54334</v>
+        <v>53605</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1442732126809968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1152302519179378</v>
+        <v>0.1114986293937621</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1829925913878686</v>
+        <v>0.1805369412353216</v>
       </c>
     </row>
     <row r="21">
@@ -9024,19 +9024,19 @@
         <v>64865</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52490</v>
+        <v>52498</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77686</v>
+        <v>75051</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3613091972434487</v>
+        <v>0.3613091972434486</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2923753175975068</v>
+        <v>0.2924186123362814</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4327216905927925</v>
+        <v>0.4180441932084802</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -9045,19 +9045,19 @@
         <v>22656</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16613</v>
+        <v>16812</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29524</v>
+        <v>30325</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1929950146264244</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1415208769659101</v>
+        <v>0.1432107793063707</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2515008748941681</v>
+        <v>0.2583200695736782</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -9066,19 +9066,19 @@
         <v>87521</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>74682</v>
+        <v>73762</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>102652</v>
+        <v>103460</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2947636958513495</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2515229057265618</v>
+        <v>0.2484222083911361</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3457224686333366</v>
+        <v>0.3484438262144571</v>
       </c>
     </row>
     <row r="22">
@@ -9095,19 +9095,19 @@
         <v>56250</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43903</v>
+        <v>45336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69029</v>
+        <v>68720</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3133217123050935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2445433047446936</v>
+        <v>0.2525260016111338</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3845001901837828</v>
+        <v>0.3827779972012438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -9116,19 +9116,19 @@
         <v>34714</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27682</v>
+        <v>27769</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42979</v>
+        <v>43095</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2957113805705976</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2358124747599802</v>
+        <v>0.2365476043585964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3661149347819656</v>
+        <v>0.3671025349722201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -9137,19 +9137,19 @@
         <v>90964</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76951</v>
+        <v>76531</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105539</v>
+        <v>105067</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.306359207204619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2591633123495338</v>
+        <v>0.2577507680978113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3554468532869917</v>
+        <v>0.3538567953570643</v>
       </c>
     </row>
     <row r="23">
@@ -9166,19 +9166,19 @@
         <v>52988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>41590</v>
+        <v>42886</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>63929</v>
+        <v>67064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2951473416342237</v>
+        <v>0.2951473416342236</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2316640791224026</v>
+        <v>0.2388815940125455</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3560930222070846</v>
+        <v>0.3735577301557358</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -9187,19 +9187,19 @@
         <v>22610</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16604</v>
+        <v>16381</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29739</v>
+        <v>30382</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.192600381356755</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1414443690679299</v>
+        <v>0.1395370723782208</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2533333887699827</v>
+        <v>0.2588053556845115</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>96</v>
@@ -9208,19 +9208,19 @@
         <v>75597</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>63716</v>
+        <v>62927</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>90007</v>
+        <v>90126</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2546038842630348</v>
+        <v>0.2546038842630347</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.21458818369928</v>
+        <v>0.2119321464168235</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3031362297320421</v>
+        <v>0.3035374250561901</v>
       </c>
     </row>
     <row r="24">
@@ -9241,19 +9241,19 @@
         <v>2610</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>883</v>
+        <v>940</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6105</v>
+        <v>6473</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.007871890266066892</v>
+        <v>0.007871890266066895</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002662978344118141</v>
+        <v>0.002835705710993605</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01841152480577715</v>
+        <v>0.01952182158776179</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>103</v>
@@ -9262,19 +9262,19 @@
         <v>52452</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44010</v>
+        <v>43736</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63059</v>
+        <v>62705</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2107555839544768</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1768376348458655</v>
+        <v>0.1757367334248918</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2533746013405386</v>
+        <v>0.2519539290562821</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>108</v>
@@ -9283,19 +9283,19 @@
         <v>55062</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45393</v>
+        <v>46698</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65845</v>
+        <v>66144</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09485984845566671</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07820165411320056</v>
+        <v>0.08045062335623841</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1134363895936625</v>
+        <v>0.1139510775511301</v>
       </c>
     </row>
     <row r="25">
@@ -9312,19 +9312,19 @@
         <v>205425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189300</v>
+        <v>189228</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>219234</v>
+        <v>219238</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6195323208119637</v>
+        <v>0.619532320811964</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.570901349712805</v>
+        <v>0.5706846254949122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6611771073753918</v>
+        <v>0.6611910896927572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>245</v>
@@ -9333,19 +9333,19 @@
         <v>133108</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121692</v>
+        <v>122490</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>145353</v>
+        <v>145072</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5348381232043616</v>
+        <v>0.5348381232043615</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4889673458674382</v>
+        <v>0.4921749874168029</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5840404834108471</v>
+        <v>0.5829102123697525</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>523</v>
@@ -9354,19 +9354,19 @@
         <v>338533</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>317974</v>
+        <v>319279</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>356705</v>
+        <v>356097</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5832190263009389</v>
+        <v>0.5832190263009388</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5478009575922634</v>
+        <v>0.5500482435783315</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6145263040038053</v>
+        <v>0.6134781493709494</v>
       </c>
     </row>
     <row r="26">
@@ -9383,19 +9383,19 @@
         <v>97995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85650</v>
+        <v>84254</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111293</v>
+        <v>111133</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2955372064270733</v>
+        <v>0.2955372064270734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2583092797700371</v>
+        <v>0.2540981283233605</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3356428316328288</v>
+        <v>0.3351612164548469</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>94</v>
@@ -9404,19 +9404,19 @@
         <v>52548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42526</v>
+        <v>44387</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62377</v>
+        <v>62018</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2111421019959948</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1708745694462287</v>
+        <v>0.1783487033026646</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2506358214281083</v>
+        <v>0.2491925790325338</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>233</v>
@@ -9425,19 +9425,19 @@
         <v>150543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>135158</v>
+        <v>133641</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>168446</v>
+        <v>167626</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2593521504366572</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2328483793619734</v>
+        <v>0.2302350106017544</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2901956038474428</v>
+        <v>0.2887835082304717</v>
       </c>
     </row>
     <row r="27">
@@ -9454,19 +9454,19 @@
         <v>25551</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18242</v>
+        <v>18975</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>34538</v>
+        <v>34503</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07705858249489594</v>
+        <v>0.07705858249489597</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05501500458008855</v>
+        <v>0.05722543066717649</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1041601957139866</v>
+        <v>0.104054667093445</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>20</v>
@@ -9475,19 +9475,19 @@
         <v>10767</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6820</v>
+        <v>6801</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>16337</v>
+        <v>16971</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04326419084516683</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02740392779800553</v>
+        <v>0.02732759718438122</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0656448826819621</v>
+        <v>0.06819221613012416</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>59</v>
@@ -9496,19 +9496,19 @@
         <v>36319</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>28457</v>
+        <v>27900</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>46883</v>
+        <v>46994</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06256897480673737</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04902457958693691</v>
+        <v>0.04806555281600124</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08076863148777451</v>
+        <v>0.08096014855509835</v>
       </c>
     </row>
     <row r="28">
@@ -9542,19 +9542,19 @@
         <v>202546</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>188719</v>
+        <v>188928</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>217632</v>
+        <v>217357</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5809915046313652</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5413299327857293</v>
+        <v>0.5419294787059875</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6242663919857632</v>
+        <v>0.6234770002295881</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>387</v>
@@ -9563,19 +9563,19 @@
         <v>202546</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>185226</v>
+        <v>184877</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>222046</v>
+        <v>221463</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3265310547424666</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2986094776525398</v>
+        <v>0.2980468773867598</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.357967629724531</v>
+        <v>0.3570280376794669</v>
       </c>
     </row>
     <row r="29">
@@ -9592,19 +9592,19 @@
         <v>178598</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>165638</v>
+        <v>166109</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>190657</v>
+        <v>190785</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6573939492165594</v>
+        <v>0.6573939492165595</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6096900150601303</v>
+        <v>0.6114256065171453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7017835942585074</v>
+        <v>0.7022544203552716</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>180</v>
@@ -9613,19 +9613,19 @@
         <v>98463</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85742</v>
+        <v>85953</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111412</v>
+        <v>110952</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2824361221466686</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2459466714862354</v>
+        <v>0.2465504629529569</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3195779842058868</v>
+        <v>0.3182607356847585</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>437</v>
@@ -9634,19 +9634,19 @@
         <v>277061</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>256244</v>
+        <v>257370</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>296798</v>
+        <v>296780</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4466587254119374</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4130992977916967</v>
+        <v>0.4149145606273609</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4784774555066112</v>
+        <v>0.4784492136029884</v>
       </c>
     </row>
     <row r="30">
@@ -9663,19 +9663,19 @@
         <v>76661</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65735</v>
+        <v>65030</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>89905</v>
+        <v>89731</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2821774747876966</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2419601865655484</v>
+        <v>0.2393667972226921</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3309301878262563</v>
+        <v>0.3302871652561629</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>60</v>
@@ -9684,19 +9684,19 @@
         <v>33872</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26452</v>
+        <v>26278</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>42567</v>
+        <v>43730</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09716074569435587</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07587632815915871</v>
+        <v>0.07537696398865631</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1221002041794237</v>
+        <v>0.1254366043741647</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>173</v>
@@ -9705,19 +9705,19 @@
         <v>110533</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>96110</v>
+        <v>94512</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>125539</v>
+        <v>127405</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1781936691480912</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1549424828438283</v>
+        <v>0.152366000253162</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.202385574300029</v>
+        <v>0.2053944712684843</v>
       </c>
     </row>
     <row r="31">
@@ -9734,19 +9734,19 @@
         <v>16417</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11340</v>
+        <v>11133</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23074</v>
+        <v>23439</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06042857599574379</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04173981344893257</v>
+        <v>0.04097936126875416</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08493313389901093</v>
+        <v>0.08627548097663189</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -9755,19 +9755,19 @@
         <v>13740</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9318</v>
+        <v>8755</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19621</v>
+        <v>18756</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03941162752761017</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02672746510677578</v>
+        <v>0.02511278052624996</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05628293780336987</v>
+        <v>0.05379912671623374</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -9776,19 +9776,19 @@
         <v>30157</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>23145</v>
+        <v>23285</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>38974</v>
+        <v>39562</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0486165506975046</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03731215148263088</v>
+        <v>0.03753922996951242</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06283087255436444</v>
+        <v>0.06377961762730353</v>
       </c>
     </row>
     <row r="32">
@@ -9809,19 +9809,19 @@
         <v>11641</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6059</v>
+        <v>6560</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19069</v>
+        <v>19479</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01331251390920673</v>
+        <v>0.01331251390920672</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006928395101279921</v>
+        <v>0.007501934307893181</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02180632796378092</v>
+        <v>0.02227525554702169</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>575</v>
@@ -9830,19 +9830,19 @@
         <v>311206</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>290342</v>
+        <v>291613</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>331598</v>
+        <v>334362</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3871456996614392</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3611902687530758</v>
+        <v>0.3627717245537423</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4125137181140916</v>
+        <v>0.4159522682061109</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>589</v>
@@ -9851,19 +9851,19 @@
         <v>322848</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>298087</v>
+        <v>299068</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>347222</v>
+        <v>349851</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1923660332030919</v>
+        <v>0.1923660332030918</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1776124705650817</v>
+        <v>0.1781974152921591</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2068893189570536</v>
+        <v>0.2084555478946757</v>
       </c>
     </row>
     <row r="33">
@@ -9880,19 +9880,19 @@
         <v>457699</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>432318</v>
+        <v>430809</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>482872</v>
+        <v>485213</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5234133098570695</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4943884720515848</v>
+        <v>0.4926624636743806</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5522007577735325</v>
+        <v>0.5548775517660282</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>467</v>
@@ -9901,19 +9901,19 @@
         <v>257619</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>237429</v>
+        <v>238106</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>277978</v>
+        <v>277731</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3204818153668251</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.295365616729426</v>
+        <v>0.2962072901321138</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.345808937132716</v>
+        <v>0.3455023967037028</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1079</v>
@@ -9922,19 +9922,19 @@
         <v>715317</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>683047</v>
+        <v>681769</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>751808</v>
+        <v>753475</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4262159511182221</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4069880697762037</v>
+        <v>0.4062266150822802</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4479586011921285</v>
+        <v>0.4489520418757255</v>
       </c>
     </row>
     <row r="34">
@@ -9951,19 +9951,19 @@
         <v>269735</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>247143</v>
+        <v>243505</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>294812</v>
+        <v>296203</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3084626566199654</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2826263671005508</v>
+        <v>0.2784663047855932</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.337140433309432</v>
+        <v>0.3387306457656716</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>270</v>
@@ -9972,19 +9972,19 @@
         <v>168859</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>152177</v>
+        <v>149448</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>188514</v>
+        <v>186428</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2100634886718032</v>
+        <v>0.2100634886718031</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1893105661739476</v>
+        <v>0.1859153307906549</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2345141267829972</v>
+        <v>0.2319198740577479</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>613</v>
@@ -9993,19 +9993,19 @@
         <v>438594</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>407216</v>
+        <v>408455</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>466581</v>
+        <v>469705</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.261332765566404</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2426364245692431</v>
+        <v>0.24337427363028</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2780085145102574</v>
+        <v>0.2798699980035659</v>
       </c>
     </row>
     <row r="35">
@@ -10022,19 +10022,19 @@
         <v>135375</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>116389</v>
+        <v>116560</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>156347</v>
+        <v>156497</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1548115196137584</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.133099822047573</v>
+        <v>0.1332956948280558</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1787948652050609</v>
+        <v>0.1789659063550549</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>113</v>
@@ -10043,19 +10043,19 @@
         <v>66164</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>54731</v>
+        <v>54567</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>79943</v>
+        <v>78894</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08230899629993271</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.068085688890598</v>
+        <v>0.06788268594634835</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09944979418986008</v>
+        <v>0.09814593360435141</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>279</v>
@@ -10064,19 +10064,19 @@
         <v>201539</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>179503</v>
+        <v>179486</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>225572</v>
+        <v>227753</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1200852501122822</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1069552107244587</v>
+        <v>0.1069449675918613</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1344051647187526</v>
+        <v>0.1357049316735988</v>
       </c>
     </row>
     <row r="36">
